--- a/Loan Comparison.xlsx
+++ b/Loan Comparison.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurma\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gurma\Documents\ExcelProjects-101\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005328DC-6094-473F-AD4A-D439A9DD53E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD0A47A0-6877-4B31-8A95-D2780F70A985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8D2DD71A-2CFD-48F6-9A0A-3CB552698D7E}"/>
   </bookViews>
@@ -30,6 +30,9 @@
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -76,7 +79,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +87,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,16 +125,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,7 +436,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -407,6 +443,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -997,9 +1034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>886047</xdr:colOff>
+      <xdr:colOff>1021080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>53163</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1346,140 +1383,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09634097-F2FF-44BE-87D0-E34908F899E4}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>10000</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.09</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="3">
         <f>B2*C2</f>
         <v>900</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <f>B2+E2</f>
         <v>10900</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <f>F2/D2</f>
         <v>908.33333333333337</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>10000</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="4">
         <v>0.08</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E5" si="0">B3*C3</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E4" si="0">B3*C3</f>
         <v>800</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F5" si="1">B3+E3</f>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F4" si="1">B3+E3</f>
         <v>10800</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="5">
         <f t="shared" ref="G3:G5" si="2">F3/D3</f>
         <v>900</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>10000</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>12</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>700.00000000000011</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f t="shared" si="1"/>
         <v>10700</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>891.66666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>10000</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>0.06</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>12</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f>B5*C5</f>
         <v>600</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <f>B5+E5</f>
         <v>10600</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="5">
         <f t="shared" si="2"/>
         <v>883.33333333333337</v>
       </c>
